--- a/resources/experiment 2/metrics/R2/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Infarto de Miocardio (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.857801257700713</v>
+        <v>0.9551407937152788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.857801257700713</v>
+        <v>0.9541076839629467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.857801257700713</v>
+        <v>0.935751436688177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9493065036559565</v>
+        <v>0.8885420669285531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9493046258157004</v>
+        <v>0.891202328577284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9493046258157004</v>
+        <v>0.6617280785679465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8042136194413455</v>
+        <v>0.9143669643010739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8042136194413455</v>
+        <v>0.9121972328564959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8042136194413455</v>
+        <v>0.9042129056918151</v>
       </c>
     </row>
   </sheetData>
